--- a/Data_science_outputs/500pop/output_results/output_analysis_3.xlsx
+++ b/Data_science_outputs/500pop/output_results/output_analysis_3.xlsx
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13149.00618496828</v>
+        <v>9729.093657620586</v>
       </c>
       <c r="C3" t="n">
         <v>8013.179053795977</v>
       </c>
       <c r="D3" t="n">
-        <v>3902.513538361648</v>
+        <v>470.3620931978388</v>
       </c>
       <c r="E3" t="n">
         <v>1234.340506597614</v>
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4715.623333054994</v>
+        <v>4265.946504806998</v>
       </c>
       <c r="C4" t="n">
         <v>3915.580268060562</v>
       </c>
       <c r="D4" t="n">
-        <v>3597.137130384208</v>
+        <v>379.4299106840738</v>
       </c>
       <c r="E4" t="n">
         <v>817.423244856971</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1132.013</v>
+        <v>1082.013</v>
       </c>
       <c r="C5" t="n">
         <v>1192.013</v>
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9305.017750000001</v>
+        <v>6416.017</v>
       </c>
       <c r="C6" t="n">
         <v>4951.01675</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13845.10750000001</v>
+        <v>8613.699500000006</v>
       </c>
       <c r="C7" t="n">
         <v>6647.796000000006</v>
       </c>
       <c r="D7" t="n">
-        <v>3636.004</v>
+        <v>489.001</v>
       </c>
       <c r="E7" t="n">
         <v>1072.005</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16709.019</v>
+        <v>13327.13650000001</v>
       </c>
       <c r="C8" t="n">
         <v>11398.91450000004</v>
       </c>
       <c r="D8" t="n">
-        <v>7685</v>
+        <v>645</v>
       </c>
       <c r="E8" t="n">
         <v>1415.005</v>
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23850.28200000002</v>
+        <v>23299.14500000001</v>
       </c>
       <c r="C9" t="n">
         <v>18993.18500000002</v>
       </c>
       <c r="D9" t="n">
-        <v>9580</v>
+        <v>3720.002</v>
       </c>
       <c r="E9" t="n">
         <v>8605.003000000001</v>
@@ -644,7 +644,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>6911117650.822006</v>
+        <v>5113611626.446007</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -662,7 +662,7 @@
         <v>346169335.1240004</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6093351868047173</v>
+        <v>0.8247830003711643</v>
       </c>
     </row>
     <row r="12">
@@ -676,10 +676,10 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>2051161115.761</v>
+        <v>247222316.1850001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2967915204738319</v>
+        <v>0.04834593126048981</v>
       </c>
     </row>
     <row r="13">
@@ -696,7 +696,7 @@
         <v>648769370.268</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09387329272145085</v>
+        <v>0.1268710683683459</v>
       </c>
     </row>
   </sheetData>
